--- a/automation/sar_inventar_hauptarchiv/OGD-Metadaten_Hauptarchiv.xlsx
+++ b/automation/sar_inventar_hauptarchiv/OGD-Metadaten_Hauptarchiv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sszgua\Python\git\sar_inventar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sszgua\Python\git\opendatazurich.github.io\automation\sar_inventar_hauptarchiv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C55FBAE-97B9-492E-B4A3-21FEC0112C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD72F1C-AE67-440E-BE19-13618B79ED0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="212">
   <si>
     <t>Erstmalige Veröffentlichung</t>
   </si>
@@ -1833,7 +1833,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2200,6 +2200,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="B22" s="22" t="s">
         <v>210</v>
       </c>
@@ -3130,6 +3133,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CBAF0EEED2F5B4AB4463B97C2AD2B71" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d2bc9691d179cb44d4ba77bdf8fcfb4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c4a6dd5ef775a5269b08f7de37f93f">
     <xsd:element name="properties">
@@ -3243,15 +3255,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
   <ds:schemaRefs>
@@ -3268,6 +3271,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3281,12 +3292,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>